--- a/Umoja/TrainingCompliance/SampleTest.xlsx
+++ b/Umoja/TrainingCompliance/SampleTest.xlsx
@@ -15,14 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$AB$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$2:$C$28</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="139">
   <si>
     <t>MONUSCO</t>
   </si>
@@ -402,10 +402,43 @@
     <t>LMS-1957</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>NC</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>LMS-1309</t>
+  </si>
+  <si>
+    <t>CNR</t>
+  </si>
+  <si>
+    <t>CNRT</t>
+  </si>
+  <si>
+    <t>LMS-1324</t>
+  </si>
+  <si>
+    <t>LMS-1339</t>
+  </si>
+  <si>
+    <t>LMS-1720</t>
+  </si>
+  <si>
+    <t>LMS-2026</t>
+  </si>
+  <si>
+    <t>LMS-2193</t>
+  </si>
+  <si>
+    <t>LMS-2244</t>
+  </si>
+  <si>
+    <t>LMS-2294</t>
   </si>
 </sst>
 </file>
@@ -4285,7 +4318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>952815</v>
       </c>
@@ -4296,7 +4329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>952815</v>
       </c>
@@ -4307,7 +4340,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>952815</v>
       </c>
@@ -4318,7 +4351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>952815</v>
       </c>
@@ -4329,7 +4362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>952815</v>
       </c>
@@ -4340,7 +4373,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>952815</v>
       </c>
@@ -4351,7 +4384,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>952815</v>
       </c>
@@ -4362,7 +4395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>952815</v>
       </c>
@@ -4373,7 +4406,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>952815</v>
       </c>
@@ -4384,7 +4417,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>952815</v>
       </c>
@@ -4395,7 +4428,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>952815</v>
       </c>
@@ -4406,7 +4439,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>952815</v>
       </c>
@@ -4417,7 +4450,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>952815</v>
       </c>
@@ -4428,7 +4461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>952815</v>
       </c>
@@ -4439,7 +4472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>952815</v>
       </c>
@@ -4450,7 +4483,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>952815</v>
       </c>
@@ -4461,7 +4494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>952815</v>
       </c>
@@ -4472,7 +4505,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>952815</v>
       </c>
@@ -4483,7 +4516,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>952815</v>
       </c>
@@ -4494,7 +4527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>952815</v>
       </c>
@@ -4505,7 +4538,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>952815</v>
       </c>
@@ -4516,7 +4549,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>952815</v>
       </c>
@@ -4527,7 +4560,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>952815</v>
       </c>
@@ -4538,7 +4571,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>952815</v>
       </c>
@@ -4549,7 +4582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>952815</v>
       </c>
@@ -4560,7 +4593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>952815</v>
       </c>
@@ -4571,7 +4604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>952815</v>
       </c>
@@ -4582,7 +4615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>952815</v>
       </c>
@@ -4593,7 +4626,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>952815</v>
       </c>
@@ -4604,7 +4637,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>952815</v>
       </c>
@@ -4615,7 +4648,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>952815</v>
       </c>
@@ -4626,7 +4659,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>952815</v>
       </c>
@@ -4637,7 +4670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>952815</v>
       </c>
@@ -4648,7 +4681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>952815</v>
       </c>
@@ -4659,7 +4692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>952815</v>
       </c>
@@ -4670,7 +4703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>952815</v>
       </c>
@@ -4681,7 +4714,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>952815</v>
       </c>
@@ -4692,7 +4725,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>952815</v>
       </c>
@@ -4703,7 +4736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>952815</v>
       </c>
@@ -4714,7 +4747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>952815</v>
       </c>
@@ -4732,109 +4765,94 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>952815</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>952815</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>952815</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -4844,13 +4862,15 @@
         <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -4860,27 +4880,31 @@
         <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>952815</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -4892,11 +4916,13 @@
         <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -4905,46 +4931,47 @@
         <v>952815</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>110</v>
-      </c>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>952815</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -4956,11 +4983,13 @@
         <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -4969,30 +4998,34 @@
         <v>952815</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>952815</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -5001,14 +5034,16 @@
         <v>952815</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -5017,30 +5052,34 @@
         <v>952815</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>952815</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -5049,32 +5088,31 @@
         <v>952815</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>119</v>
-      </c>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -5084,11 +5122,13 @@
         <v>119</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -5097,16 +5137,140 @@
         <v>952815</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:C52">
